--- a/results/mp/logistic/corona/confidence/210/topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,16 +40,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>crude</t>
   </si>
   <si>
     <t>war</t>
@@ -58,18 +55,33 @@
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -88,10 +100,25 @@
     <t>hand</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
@@ -100,34 +127,28 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>save</t>
   </si>
   <si>
     <t>join</t>
@@ -136,46 +157,37 @@
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
+    <t>protect</t>
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
   </si>
 </sst>
 </file>
@@ -533,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>0.9322033898305084</v>
@@ -652,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7465753424657534</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +682,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7307692307692307</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5263157894736842</v>
+        <v>0.4656084656084656</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8459530026109661</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L7">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="M7">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,38 +864,38 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.455026455026455</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <v>0.8113207547169812</v>
+      </c>
+      <c r="L8">
         <v>86</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>86</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>103</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L8">
-        <v>30</v>
-      </c>
-      <c r="M8">
-        <v>30</v>
-      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -894,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4067796610169492</v>
+        <v>0.3236434108527132</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>35</v>
+        <v>349</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8301886792452831</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3585271317829458</v>
+        <v>0.28</v>
       </c>
       <c r="C10">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>331</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.8</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,13 +1014,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1879194630872483</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1020,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1052,13 +1064,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1416666666666667</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1070,45 +1082,69 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>0.78125</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>28</v>
       </c>
-      <c r="K12">
-        <v>0.7816901408450704</v>
-      </c>
-      <c r="L12">
-        <v>111</v>
-      </c>
-      <c r="M12">
-        <v>111</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>31</v>
-      </c>
     </row>
     <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.07539682539682539</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>233</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1120,73 +1156,145 @@
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.008</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>0.17</v>
+      </c>
+      <c r="F14">
+        <v>0.83</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2356</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>0.7746478873239436</v>
+      </c>
+      <c r="L14">
+        <v>110</v>
+      </c>
+      <c r="M14">
+        <v>110</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.006127055788455337</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>0.24</v>
+      </c>
+      <c r="F15">
+        <v>0.76</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>3082</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="L15">
+        <v>44</v>
+      </c>
+      <c r="M15">
+        <v>44</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.003694341823838227</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>0.54</v>
+      </c>
+      <c r="F16">
+        <v>0.46</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>5124</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="J14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14">
-        <v>0.7734375</v>
-      </c>
-      <c r="L14">
-        <v>99</v>
-      </c>
-      <c r="M14">
-        <v>99</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L15">
-        <v>30</v>
-      </c>
-      <c r="M15">
-        <v>30</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1198,21 +1306,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K17">
-        <v>0.7307692307692307</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1224,12 +1332,12 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K18">
         <v>0.7272727272727273</v>
@@ -1255,16 +1363,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.723404255319149</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1276,21 +1384,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K20">
         <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1302,21 +1410,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1328,21 +1436,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.6511627906976745</v>
+        <v>0.6875</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1359,16 +1467,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.6264705882352941</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L23">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1380,21 +1488,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.62</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1406,21 +1514,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.5846153846153846</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1432,21 +1540,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.5714285714285714</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1458,21 +1566,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5690376569037657</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1484,21 +1592,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>0.559322033898305</v>
+        <v>0.5864406779661017</v>
       </c>
       <c r="L28">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="M28">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1510,21 +1618,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.5571428571428572</v>
+        <v>0.5481171548117155</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1536,21 +1644,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>0.5531914893617021</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L30">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M30">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1562,21 +1670,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.475</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1588,21 +1696,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>0.4719101123595505</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1614,21 +1722,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.2435897435897436</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1640,111 +1748,137 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.01669449081803005</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N34">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>1178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.007499062617172854</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N35">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>2647</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36">
+        <v>0.2876712328767123</v>
+      </c>
+      <c r="L36">
+        <v>21</v>
+      </c>
+      <c r="M36">
+        <v>21</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>52</v>
-      </c>
-      <c r="K36">
-        <v>0.005019072475406545</v>
-      </c>
-      <c r="L36">
-        <v>25</v>
-      </c>
-      <c r="M36">
-        <v>40</v>
-      </c>
-      <c r="N36">
-        <v>0.62</v>
-      </c>
-      <c r="O36">
-        <v>0.38</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>4956</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.003885758694385079</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N37">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="O37">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>5127</v>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38">
+        <v>0.004275165176836378</v>
+      </c>
+      <c r="L38">
+        <v>22</v>
+      </c>
+      <c r="M38">
+        <v>41</v>
+      </c>
+      <c r="N38">
+        <v>0.54</v>
+      </c>
+      <c r="O38">
+        <v>0.46</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>5124</v>
       </c>
     </row>
   </sheetData>
